--- a/17.staff/departments.xlsx
+++ b/17.staff/departments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Rowad Modern Engineering\x004 Data Science\03.rme.db\00.repo\rme.db\17.staff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA93F78A-A1F5-4815-8953-D81EA54C199D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0DDA0E-B600-4B4C-8CAE-C9207BD5A54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="555">
   <si>
     <t>Job</t>
   </si>
@@ -2033,8 +2033,8 @@
   <dimension ref="A1:B542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B348" sqref="B348"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4831,16 +4831,25 @@
       <c r="A349" t="s">
         <v>348</v>
       </c>
+      <c r="B349" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>349</v>
       </c>
+      <c r="B350" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>350</v>
       </c>
+      <c r="B351" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
@@ -4854,6 +4863,9 @@
       <c r="A353" t="s">
         <v>352</v>
       </c>
+      <c r="B353" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
@@ -4867,51 +4879,81 @@
       <c r="A355" t="s">
         <v>354</v>
       </c>
+      <c r="B355" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>355</v>
       </c>
+      <c r="B356" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>356</v>
       </c>
+      <c r="B357" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>357</v>
       </c>
+      <c r="B358" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>358</v>
       </c>
+      <c r="B359" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>359</v>
       </c>
+      <c r="B360" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>360</v>
       </c>
+      <c r="B361" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>361</v>
       </c>
+      <c r="B362" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>362</v>
       </c>
+      <c r="B363" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>363</v>
       </c>
+      <c r="B364" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
@@ -4949,6 +4991,9 @@
       <c r="A369" t="s">
         <v>368</v>
       </c>
+      <c r="B369" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
@@ -4978,6 +5023,9 @@
       <c r="A373" t="s">
         <v>372</v>
       </c>
+      <c r="B373" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
@@ -4999,6 +5047,9 @@
       <c r="A376" t="s">
         <v>375</v>
       </c>
+      <c r="B376" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
@@ -5012,6 +5063,9 @@
       <c r="A378" t="s">
         <v>377</v>
       </c>
+      <c r="B378" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
@@ -5025,11 +5079,17 @@
       <c r="A380" t="s">
         <v>379</v>
       </c>
+      <c r="B380" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>380</v>
       </c>
+      <c r="B381" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
@@ -5059,11 +5119,17 @@
       <c r="A385" t="s">
         <v>384</v>
       </c>
+      <c r="B385" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>385</v>
       </c>
+      <c r="B386" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
@@ -5117,21 +5183,33 @@
       <c r="A393" t="s">
         <v>392</v>
       </c>
+      <c r="B393" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>393</v>
       </c>
+      <c r="B394" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>394</v>
       </c>
+      <c r="B395" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>395</v>
       </c>
+      <c r="B396" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
@@ -5161,6 +5239,9 @@
       <c r="A400" t="s">
         <v>399</v>
       </c>
+      <c r="B400" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
@@ -5190,11 +5271,17 @@
       <c r="A404" t="s">
         <v>403</v>
       </c>
+      <c r="B404" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>404</v>
       </c>
+      <c r="B405" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
@@ -5208,21 +5295,33 @@
       <c r="A407" t="s">
         <v>406</v>
       </c>
+      <c r="B407" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>407</v>
       </c>
+      <c r="B408" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>408</v>
       </c>
+      <c r="B409" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>409</v>
       </c>
+      <c r="B410" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
@@ -5260,16 +5359,25 @@
       <c r="A415" t="s">
         <v>414</v>
       </c>
+      <c r="B415" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>415</v>
       </c>
+      <c r="B416" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>416</v>
       </c>
+      <c r="B417" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
@@ -5283,16 +5391,25 @@
       <c r="A419" t="s">
         <v>418</v>
       </c>
+      <c r="B419" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>419</v>
       </c>
+      <c r="B420" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>420</v>
       </c>
+      <c r="B421" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
@@ -5306,11 +5423,17 @@
       <c r="A423" t="s">
         <v>422</v>
       </c>
+      <c r="B423" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>423</v>
       </c>
+      <c r="B424" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
@@ -5340,6 +5463,9 @@
       <c r="A428" t="s">
         <v>427</v>
       </c>
+      <c r="B428" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
@@ -5353,6 +5479,9 @@
       <c r="A430" t="s">
         <v>429</v>
       </c>
+      <c r="B430" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
@@ -5366,11 +5495,17 @@
       <c r="A432" t="s">
         <v>431</v>
       </c>
+      <c r="B432" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>432</v>
       </c>
+      <c r="B433" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
@@ -5384,6 +5519,9 @@
       <c r="A435" t="s">
         <v>434</v>
       </c>
+      <c r="B435" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
@@ -5405,11 +5543,17 @@
       <c r="A438" t="s">
         <v>437</v>
       </c>
+      <c r="B438" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>438</v>
       </c>
+      <c r="B439" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
@@ -5423,6 +5567,9 @@
       <c r="A441" t="s">
         <v>440</v>
       </c>
+      <c r="B441" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
@@ -5452,26 +5599,41 @@
       <c r="A445" t="s">
         <v>444</v>
       </c>
+      <c r="B445" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>445</v>
       </c>
+      <c r="B446" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>446</v>
       </c>
+      <c r="B447" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>447</v>
       </c>
+      <c r="B448" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>448</v>
       </c>
+      <c r="B449" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
@@ -5493,16 +5655,25 @@
       <c r="A452" t="s">
         <v>451</v>
       </c>
+      <c r="B452" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>452</v>
       </c>
+      <c r="B453" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>453</v>
       </c>
+      <c r="B454" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
@@ -5524,6 +5695,9 @@
       <c r="A457" t="s">
         <v>456</v>
       </c>
+      <c r="B457" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
@@ -5545,21 +5719,33 @@
       <c r="A460" t="s">
         <v>459</v>
       </c>
+      <c r="B460" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>460</v>
       </c>
+      <c r="B461" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>461</v>
       </c>
+      <c r="B462" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>462</v>
       </c>
+      <c r="B463" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
@@ -5573,11 +5759,17 @@
       <c r="A465" t="s">
         <v>464</v>
       </c>
+      <c r="B465" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>465</v>
       </c>
+      <c r="B466" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
@@ -5615,6 +5807,9 @@
       <c r="A471" t="s">
         <v>470</v>
       </c>
+      <c r="B471" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
@@ -5628,16 +5823,25 @@
       <c r="A473" t="s">
         <v>472</v>
       </c>
+      <c r="B473" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>473</v>
       </c>
+      <c r="B474" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>474</v>
       </c>
+      <c r="B475" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
@@ -5659,11 +5863,17 @@
       <c r="A478" t="s">
         <v>477</v>
       </c>
+      <c r="B478" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>478</v>
       </c>
+      <c r="B479" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
@@ -5677,11 +5887,17 @@
       <c r="A481" t="s">
         <v>480</v>
       </c>
+      <c r="B481" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>481</v>
       </c>
+      <c r="B482" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
@@ -5695,26 +5911,41 @@
       <c r="A484" t="s">
         <v>483</v>
       </c>
+      <c r="B484" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>484</v>
       </c>
+      <c r="B485" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>485</v>
       </c>
+      <c r="B486" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>486</v>
       </c>
+      <c r="B487" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>487</v>
       </c>
+      <c r="B488" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
@@ -5728,6 +5959,9 @@
       <c r="A490" t="s">
         <v>489</v>
       </c>
+      <c r="B490" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
@@ -5741,6 +5975,9 @@
       <c r="A492" t="s">
         <v>491</v>
       </c>
+      <c r="B492" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
@@ -5754,6 +5991,9 @@
       <c r="A494" t="s">
         <v>493</v>
       </c>
+      <c r="B494" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
@@ -5775,6 +6015,9 @@
       <c r="A497" t="s">
         <v>496</v>
       </c>
+      <c r="B497" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
@@ -5796,31 +6039,49 @@
       <c r="A500" t="s">
         <v>499</v>
       </c>
+      <c r="B500" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>500</v>
       </c>
+      <c r="B501" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>501</v>
       </c>
+      <c r="B502" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>502</v>
       </c>
+      <c r="B503" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>503</v>
       </c>
+      <c r="B504" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>504</v>
       </c>
+      <c r="B505" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
@@ -5834,11 +6095,17 @@
       <c r="A507" t="s">
         <v>506</v>
       </c>
+      <c r="B507" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>507</v>
       </c>
+      <c r="B508" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
@@ -5852,11 +6119,17 @@
       <c r="A510" t="s">
         <v>509</v>
       </c>
+      <c r="B510" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>510</v>
       </c>
+      <c r="B511" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
@@ -5870,6 +6143,9 @@
       <c r="A513" t="s">
         <v>512</v>
       </c>
+      <c r="B513" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
@@ -5891,11 +6167,17 @@
       <c r="A516" t="s">
         <v>515</v>
       </c>
+      <c r="B516" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>516</v>
       </c>
+      <c r="B517" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
@@ -5917,21 +6199,33 @@
       <c r="A520" t="s">
         <v>519</v>
       </c>
+      <c r="B520" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>520</v>
       </c>
+      <c r="B521" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>521</v>
       </c>
+      <c r="B522" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>522</v>
       </c>
+      <c r="B523" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
@@ -5945,6 +6239,9 @@
       <c r="A525" t="s">
         <v>524</v>
       </c>
+      <c r="B525" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
@@ -5958,6 +6255,9 @@
       <c r="A527" t="s">
         <v>526</v>
       </c>
+      <c r="B527" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
@@ -5971,11 +6271,17 @@
       <c r="A529" t="s">
         <v>528</v>
       </c>
+      <c r="B529" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>529</v>
       </c>
+      <c r="B530" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
@@ -5989,6 +6295,9 @@
       <c r="A532" t="s">
         <v>531</v>
       </c>
+      <c r="B532" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
@@ -6001,6 +6310,9 @@
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>533</v>
+      </c>
+      <c r="B534" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
